--- a/data/human/adult/validation/Scenarios/AirwayObstruction.xlsx
+++ b/data/human/adult/validation/Scenarios/AirwayObstruction.xlsx
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="56">
   <si>
     <t xml:space="preserve">Scenario Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario Identifier</t>
   </si>
   <si>
     <t xml:space="preserve">Patient File</t>
@@ -207,7 +210,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -238,6 +241,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -245,7 +255,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -599,7 +608,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -608,7 +617,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -624,11 +641,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -656,11 +673,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -672,7 +689,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -688,7 +705,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -700,19 +717,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -736,15 +749,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -752,15 +765,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -768,7 +781,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -776,11 +789,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -792,11 +805,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -804,7 +817,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -812,7 +825,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -820,7 +833,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -828,27 +841,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -944,13 +957,13 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35.58"/>
@@ -968,1207 +981,1211 @@
         <v>1</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="H3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="A4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26" t="n">
+      <c r="A9" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
+      <c r="B9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26" t="n">
+      <c r="A10" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28" t="s">
+      <c r="B10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="29"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26" t="n">
+      <c r="A11" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
+      <c r="B11" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="33" t="s">
+      <c r="C12" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
+      <c r="F12" s="33" t="s">
+        <v>26</v>
+      </c>
       <c r="G12" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="H12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="35" t="s">
+      <c r="A13" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="36" t="s">
+      <c r="D13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="29"/>
+      <c r="E13" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="29"/>
-    </row>
-    <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="29"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="A18" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="H18" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="43" t="n">
+      <c r="A19" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45" t="s">
+      <c r="B19" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="46"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="47" t="n">
+      <c r="A20" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="46"/>
+      <c r="B20" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="47"/>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="32" t="s">
+      <c r="C21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="E21" s="33" t="s">
         <v>25</v>
       </c>
+      <c r="F21" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="G21" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="H21" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="35" t="s">
+      <c r="A22" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="46"/>
+      <c r="C22" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="51"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="47"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="46"/>
+      <c r="A23" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="53"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="39" t="s">
+      <c r="A24" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="46"/>
+      <c r="C24" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="53"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="47"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="46"/>
+      <c r="A25" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="53"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="47"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="39" t="s">
+      <c r="A26" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="46"/>
+      <c r="C26" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="53"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="47"/>
     </row>
     <row r="27" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>9</v>
+      <c r="A27" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="47" t="n">
+      <c r="A28" s="48" t="n">
         <v>3</v>
       </c>
-      <c r="B28" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="49" t="s">
+      <c r="B28" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="29"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" customFormat="false" ht="55.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="47" t="n">
+      <c r="A29" s="48" t="n">
         <v>3</v>
       </c>
-      <c r="B29" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="29"/>
+      <c r="B29" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="30"/>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="B30" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="32" t="s">
+      <c r="C30" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="E30" s="33" t="s">
         <v>25</v>
       </c>
+      <c r="F30" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="G30" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="H30" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="35" t="s">
+      <c r="A31" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="53" t="n">
+      <c r="D31" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="38"/>
+      <c r="H31" s="30"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="29"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="39" t="s">
+      <c r="E32" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="42"/>
+      <c r="H32" s="30"/>
+    </row>
+    <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="41"/>
-      <c r="H32" s="29"/>
-    </row>
-    <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" s="42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="41"/>
-      <c r="H35" s="29"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
+      <c r="A36" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
       <c r="G36" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="H36" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="43" t="n">
+      <c r="A37" s="44" t="n">
         <v>4</v>
       </c>
-      <c r="B37" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="29"/>
+      <c r="B37" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="30"/>
     </row>
     <row r="38" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="54" t="n">
+      <c r="A38" s="55" t="n">
         <v>4</v>
       </c>
-      <c r="B38" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="29"/>
+      <c r="B38" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="30"/>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="B39" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="32" t="s">
+      <c r="C39" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="E39" s="33" t="s">
         <v>25</v>
       </c>
+      <c r="F39" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="G39" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="H39" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="35" t="s">
+      <c r="A40" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="50"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="29"/>
+      <c r="C40" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="51"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="30"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="52"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="29"/>
+      <c r="A41" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="53"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="30"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="39" t="s">
+      <c r="A42" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="29"/>
+      <c r="C42" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="53"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="30"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="52"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="29"/>
+      <c r="A43" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="53"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="30"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="39" t="s">
+      <c r="A44" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="52"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="29"/>
+      <c r="C44" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="53"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="30"/>
     </row>
     <row r="45" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
+      <c r="A45" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
       <c r="G45" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="H45" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="68.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="54" t="n">
+      <c r="A46" s="55" t="n">
         <v>5</v>
       </c>
-      <c r="B46" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="28" t="s">
+      <c r="B46" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="H46" s="29"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="30"/>
     </row>
     <row r="47" customFormat="false" ht="68.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="54" t="n">
+      <c r="A47" s="55" t="n">
         <v>5</v>
       </c>
-      <c r="B47" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="29"/>
+      <c r="B47" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="30"/>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="B48" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="32" t="s">
+      <c r="C48" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="E48" s="33" t="s">
         <v>25</v>
       </c>
+      <c r="F48" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="G48" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="H48" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="35" t="s">
+      <c r="A49" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="36" t="s">
+      <c r="C49" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="38"/>
+      <c r="H49" s="30"/>
+    </row>
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G49" s="37"/>
-      <c r="H49" s="29"/>
-    </row>
-    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="39" t="s">
+      <c r="E50" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="42"/>
+      <c r="H50" s="30"/>
+    </row>
+    <row r="51" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="54" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="41"/>
-      <c r="H50" s="29"/>
-    </row>
-    <row r="51" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H51" s="42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H52" s="42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53" s="53" t="n">
-        <v>3</v>
-      </c>
-      <c r="F53" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" s="41"/>
-      <c r="H53" s="29"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="30"/>
     </row>
     <row r="54" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="44" t="n">
         <v>6</v>
       </c>
-      <c r="B54" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="43" t="n">
+      <c r="B55" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="H55" s="30"/>
+    </row>
+    <row r="56" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="57" t="n">
         <v>6</v>
       </c>
-      <c r="B55" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="H55" s="29"/>
-    </row>
-    <row r="56" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="56" t="n">
-        <v>6</v>
-      </c>
-      <c r="B56" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="29"/>
+      <c r="B56" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="30"/>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="B57" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="32" t="s">
+      <c r="C57" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="E57" s="33" t="s">
         <v>25</v>
       </c>
+      <c r="F57" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="G57" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="H57" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" s="35" t="s">
+      <c r="A58" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E58" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="50"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="29"/>
+      <c r="C58" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="51"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="30"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="52"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="29"/>
+      <c r="A59" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="53"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="30"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" s="39" t="s">
+      <c r="A60" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E60" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="29"/>
+      <c r="C60" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="53"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="30"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="52"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="29"/>
+      <c r="A61" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="53"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="60" t="s">
+      <c r="A62" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D62" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="E62" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" s="63"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="65"/>
+      <c r="C62" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="64"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="30">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G5:H5"/>
